--- a/evaluation/evaluation-so-topics.xlsx
+++ b/evaluation/evaluation-so-topics.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>Eli Bendersky - Benchmark</t>
   </si>
@@ -104,13 +104,79 @@
   </si>
   <si>
     <t>RISC-V old version 5.4</t>
+  </si>
+  <si>
+    <t>10^-6</t>
+  </si>
+  <si>
+    <t>Trocas de contexto em 12h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>1 dia</t>
+  </si>
+  <si>
+    <t>1 mês</t>
+  </si>
+  <si>
+    <t>1 ano</t>
+  </si>
+  <si>
+    <t>70.605 s</t>
+  </si>
+  <si>
+    <t>2.335 min</t>
+  </si>
+  <si>
+    <t>1.67 h</t>
+  </si>
+  <si>
+    <t>20,04 h</t>
+  </si>
+  <si>
+    <t>23.003 s</t>
+  </si>
+  <si>
+    <t>1.1 min</t>
+  </si>
+  <si>
+    <t>30.30 min</t>
+  </si>
+  <si>
+    <t>6.06 h</t>
+  </si>
+  <si>
+    <t>533.248 s</t>
+  </si>
+  <si>
+    <t>8.887 min</t>
+  </si>
+  <si>
+    <t>4.443 h</t>
+  </si>
+  <si>
+    <t>2.22 dias</t>
+  </si>
+  <si>
+    <t>7479.665 s</t>
+  </si>
+  <si>
+    <t>4.16 h</t>
+  </si>
+  <si>
+    <t>5.2 dias</t>
+  </si>
+  <si>
+    <t>62.4 dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -148,12 +214,12 @@
       <name val="Ubuntu"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <b/>
       <name val="Ubuntu"/>
     </font>
     <font>
-      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Ubuntu"/>
     </font>
     <font>
@@ -163,6 +229,14 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Ubuntu"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Ubuntu"/>
     </font>
   </fonts>
   <fills count="10">
@@ -227,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -256,10 +330,10 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -268,19 +342,19 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
@@ -296,6 +370,24 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,11 +605,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1941606746"/>
-        <c:axId val="1492870341"/>
+        <c:axId val="1443255503"/>
+        <c:axId val="924497765"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1941606746"/>
+        <c:axId val="1443255503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,10 +651,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1492870341"/>
+        <c:crossAx val="924497765"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1492870341"/>
+        <c:axId val="924497765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1941606746"/>
+        <c:crossAx val="1443255503"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -865,11 +957,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1006935692"/>
-        <c:axId val="1583097682"/>
+        <c:axId val="991952140"/>
+        <c:axId val="1207887667"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1006935692"/>
+        <c:axId val="991952140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,10 +1003,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583097682"/>
+        <c:crossAx val="1207887667"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1583097682"/>
+        <c:axId val="1207887667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1075,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006935692"/>
+        <c:crossAx val="991952140"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1086,11 +1178,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1225345478"/>
-        <c:axId val="1193377325"/>
+        <c:axId val="716325392"/>
+        <c:axId val="1910369060"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1225345478"/>
+        <c:axId val="716325392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,10 +1224,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1193377325"/>
+        <c:crossAx val="1910369060"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1193377325"/>
+        <c:axId val="1910369060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1298,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1225345478"/>
+        <c:crossAx val="716325392"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1398,11 +1490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1784252915"/>
-        <c:axId val="52372634"/>
+        <c:axId val="1295933023"/>
+        <c:axId val="1662047514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784252915"/>
+        <c:axId val="1295933023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,10 +1536,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52372634"/>
+        <c:crossAx val="1662047514"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52372634"/>
+        <c:axId val="1662047514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1608,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784252915"/>
+        <c:crossAx val="1295933023"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1750,11 +1842,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1952566123"/>
-        <c:axId val="99184753"/>
+        <c:axId val="1602750624"/>
+        <c:axId val="1042712370"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1952566123"/>
+        <c:axId val="1602750624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,10 +1888,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99184753"/>
+        <c:crossAx val="1042712370"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99184753"/>
+        <c:axId val="1042712370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1960,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1952566123"/>
+        <c:crossAx val="1602750624"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1998,10 +2090,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8524875" cy="4524375"/>
     <xdr:graphicFrame>
@@ -2222,6 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2492,13 +2585,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="14">
         <v>53.6506</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="14">
         <v>64.193</v>
       </c>
       <c r="D6" s="15">
@@ -2560,13 +2653,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
         <v>75.2535</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="6">
         <v>104.9603</v>
       </c>
       <c r="D7" s="6">
@@ -2735,7 +2828,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="18">
@@ -2761,7 +2854,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="18">
@@ -2809,7 +2902,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6">
@@ -2880,7 +2973,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="6">
@@ -3009,10 +3102,10 @@
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -3812,28 +3905,28 @@
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="6">
         <v>59.05</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="6">
         <v>59.68</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="6">
         <v>59.32</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="6">
         <v>63.66</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="6">
         <v>63.24</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="6">
         <v>67.63</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="6">
         <v>66.93</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="6">
         <v>66.99</v>
       </c>
     </row>
@@ -3841,28 +3934,28 @@
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="6">
         <v>58.67</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="6">
         <v>63.36</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="6">
         <v>61.9</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="6">
         <v>60.58</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="6">
         <v>62.6</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="6">
         <v>66.52</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="6">
         <v>66.94</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="6">
         <v>66.99</v>
       </c>
     </row>
@@ -3870,28 +3963,28 @@
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="6">
         <v>59.42</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="6">
         <v>63.96</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="6">
         <v>62.46</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="6">
         <v>65.13</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="6">
         <v>65.88</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="6">
         <v>68.21</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="6">
         <v>69.09</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="6">
         <v>68.15</v>
       </c>
     </row>
@@ -3899,28 +3992,28 @@
       <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="6">
         <v>59.92</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="6">
         <v>60.66</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="6">
         <v>62.57</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="6">
         <v>62.25</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="6">
         <v>65.99</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="6">
         <v>67.2</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="6">
         <v>68.34</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="6">
         <v>68.49</v>
       </c>
     </row>
@@ -3928,28 +4021,28 @@
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="6">
         <v>61.88</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="6">
         <v>63.11</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="6">
         <v>62.27</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="6">
         <v>60.67</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="6">
         <v>65.75</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="6">
         <v>66.38</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H63" s="6">
         <v>67.35</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="6">
         <v>68.2</v>
       </c>
     </row>
@@ -3957,28 +4050,28 @@
       <c r="A64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="6">
         <v>58.4</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="6">
         <v>62.54</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="6">
         <v>63.31</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="6">
         <v>66.14</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="6">
         <v>65.6</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="6">
         <v>67.62</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="6">
         <v>68.1</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="6">
         <v>72.46</v>
       </c>
     </row>
@@ -4005,25 +4098,145 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68">
-      <c r="C68" s="1"/>
+      <c r="C68" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69">
-      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70">
-      <c r="C70" s="1"/>
+      <c r="A70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="11">
+        <v>7.1037</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2.3144</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="6">
+        <v>53.6506</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="6">
+        <v>75.2535</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="27">
+        <v>9939292.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4043,6 +4256,9 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="J12:Q12"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>